--- a/Fall-Semester/ANLT600/Multiplicative decomposition.xlsx
+++ b/Fall-Semester/ANLT600/Multiplicative decomposition.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saskpolytech-my.sharepoint.com/personal/royan_saskpolytech_ca/Documents/M Drive/MATH &amp; STAT/AY - 2022_2023/Winter/ANLT 600/Excel problems/Time series analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{985447CD-3BBB-4FF9-AD83-C19F178F8230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D82B6C1-4236-4BDF-B13D-263FDC8E26B2}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{985447CD-3BBB-4FF9-AD83-C19F178F8230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CCD6769-0A7A-BD41-BC08-B4789E20164E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="29820" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MD1" sheetId="5" r:id="rId1"/>
-    <sheet name="MD2" sheetId="6" r:id="rId2"/>
-    <sheet name="Practice1" sheetId="10" r:id="rId3"/>
-    <sheet name="Practice2" sheetId="11" r:id="rId4"/>
+    <sheet name="MD1 Practice" sheetId="12" r:id="rId1"/>
+    <sheet name="MD1" sheetId="5" r:id="rId2"/>
+    <sheet name="MD2" sheetId="6" r:id="rId3"/>
+    <sheet name="Practice1" sheetId="10" r:id="rId4"/>
+    <sheet name="Practice2" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
   <si>
     <t>Quarterly Data for Car Sales</t>
   </si>
@@ -194,6 +195,21 @@
   <si>
     <t>X Variable 1</t>
   </si>
+  <si>
+    <t>Data -&gt; Data Analysis -&gt; Regression</t>
+  </si>
+  <si>
+    <t>Y: Deseasonalize</t>
+  </si>
+  <si>
+    <t>X: t</t>
+  </si>
+  <si>
+    <t>Output Range</t>
+  </si>
+  <si>
+    <t>Copy data</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -322,6 +338,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +364,649 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MD1 Practice'!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MD1 Practice'!$B$4:$C$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Year 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Year 3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Year 4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Year 5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MD1 Practice'!$A$49:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.9775197396866568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6048016793023114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2097428115188347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5926840674107972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5314171136600798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1033533813497387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8643399956774287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.269804249841803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0853144876335028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6019050833971651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5189371798360227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9469244322728088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6392118616069267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1004567854445924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1735343639946176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6240446147038146</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1931092355803496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5990084874920187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8281315481532125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3011647971348204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EDE-814A-8FD1-701FECA44600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MD1 Practice'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales(1000s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'MD1 Practice'!$B$4:$C$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Year 2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Year 3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Year 4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Year 5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MD1 Practice'!$B$49:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EDE-814A-8FD1-701FECA44600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1356514751"/>
+        <c:axId val="1350831535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1356514751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350831535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350831535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1356514751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -982,7 +1649,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1626,6 +2293,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2130,7 +2837,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2238,11 +2945,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2253,11 +2955,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2289,9 +2986,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2645,7 +3339,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F767B5C-FB56-9CDA-7604-9529FF3B89D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2686,7 +3937,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2725,10 +3976,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2993,25 +4240,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66454748-5305-4800-BE87-794A0736E1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A19EFC-A1C8-E14E-B0AF-54E0236B329B}">
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3025,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3060,7 +4307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3074,22 +4321,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>0.92929312999969105</v>
+        <v>0.92929312999969071</v>
       </c>
       <c r="I4" s="1">
         <f>D4/H4</f>
-        <v>5.2728249481427127</v>
+        <v>5.2728249481427145</v>
       </c>
       <c r="J4" s="1">
-        <f>($B$42*A4)+$B$41</f>
+        <f>A4*$B$44+$B$43</f>
         <v>5.3562429108760474</v>
       </c>
       <c r="K4" s="1">
-        <f>H4*J4</f>
-        <v>4.9775197396866586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f>J4*H4</f>
+        <v>4.9775197396866568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3107,11 +4354,11 @@
         <v>5.0212941896702796</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J23" si="1">($B$42*A5)+$B$41</f>
+        <f t="shared" ref="J5:J23" si="1">A5*$B$44+$B$43</f>
         <v>5.5052533135392006</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K23" si="2">H5*J5</f>
+        <f t="shared" ref="K5:K23" si="2">J5*H5</f>
         <v>4.6048016793023114</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -3120,7 +4367,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3158,7 +4405,7 @@
         <v>6.2097428115188347</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3169,15 +4416,15 @@
         <v>6.6</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(D5:D8)</f>
+        <f t="shared" ref="E7:E18" si="3">AVERAGE(D5:D8)</f>
         <v>5.7249999999999996</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F16" si="3">AVERAGE(E7:E8)</f>
+        <f t="shared" ref="F7:F17" si="4">AVERAGE(E7:E8)</f>
         <v>5.85</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G16" si="4">D7/F7</f>
+        <f t="shared" ref="G7:G17" si="5">D7/F7</f>
         <v>1.1282051282051282</v>
       </c>
       <c r="H7" s="1">
@@ -3196,7 +4443,7 @@
         <v>6.5926840674107972</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3210,15 +4457,15 @@
         <v>5.9</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:E17" si="5">AVERAGE(D6:D9)</f>
+        <f t="shared" si="3"/>
         <v>5.9750000000000005</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0625</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97319587628865989</v>
       </c>
       <c r="H8" s="1">
@@ -3237,7 +4484,7 @@
         <v>5.5314171136600798</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3248,15 +4495,15 @@
         <v>5.2</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(D7:D10)</f>
+        <f t="shared" si="3"/>
         <v>6.15</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2625000000000002</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83033932135728539</v>
       </c>
       <c r="H9" s="1">
@@ -3275,7 +4522,7 @@
         <v>5.1033533813497387</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3286,15 +4533,15 @@
         <v>6.9</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.375</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="5"/>
-        <v>6.375</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="4"/>
         <v>1.078125</v>
       </c>
       <c r="H10" s="1">
@@ -3313,7 +4560,7 @@
         <v>6.8643399956774287</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3324,15 +4571,15 @@
         <v>7.5</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4250000000000007</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4875000000000007</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="5"/>
-        <v>6.4250000000000007</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>6.4875000000000007</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="4"/>
         <v>1.1560693641618496</v>
       </c>
       <c r="H11" s="1">
@@ -3351,7 +4598,7 @@
         <v>7.269804249841803</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3365,15 +4612,15 @@
         <v>6.1</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.55</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="4"/>
+        <v>6.65</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="5"/>
-        <v>6.55</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>6.65</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="4"/>
         <v>0.91729323308270672</v>
       </c>
       <c r="H12" s="1">
@@ -3392,7 +4639,7 @@
         <v>6.0853144876335028</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3403,15 +4650,15 @@
         <v>5.7</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="3"/>
+        <v>6.75</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="5"/>
-        <v>6.75</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="4"/>
         <v>0.83823529411764708</v>
       </c>
       <c r="H13" s="1">
@@ -3430,7 +4677,7 @@
         <v>5.6019050833971651</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3441,15 +4688,15 @@
         <v>7.7</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>6.85</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8875000000000002</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="5"/>
-        <v>6.85</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8875000000000002</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="4"/>
         <v>1.117967332123412</v>
       </c>
       <c r="H14" s="1">
@@ -3468,7 +4715,7 @@
         <v>7.5189371798360227</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3479,15 +4726,15 @@
         <v>7.9</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9250000000000007</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9750000000000005</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="5"/>
-        <v>6.9250000000000007</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>6.9750000000000005</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="4"/>
         <v>1.1326164874551972</v>
       </c>
       <c r="H15" s="1">
@@ -3506,7 +4753,7 @@
         <v>7.9469244322728088</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3520,15 +4767,15 @@
         <v>6.4</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="5"/>
-        <v>7.0250000000000004</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>7.0750000000000002</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="4"/>
         <v>0.90459363957597172</v>
       </c>
       <c r="H16" s="1">
@@ -3547,7 +4794,7 @@
         <v>6.6392118616069267</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3558,15 +4805,15 @@
         <v>6.1</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>7.125</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="5"/>
-        <v>7.125</v>
-      </c>
-      <c r="F17" s="1">
-        <f>AVERAGE(E17:E18)</f>
-        <v>7.2</v>
-      </c>
-      <c r="G17" s="1">
-        <f>D17/F17</f>
         <v>0.8472222222222221</v>
       </c>
       <c r="H17" s="1">
@@ -3585,7 +4832,7 @@
         <v>6.1004567854445924</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3596,7 +4843,7 @@
         <v>8.1</v>
       </c>
       <c r="E18" s="1">
-        <f>AVERAGE(D16:D19)</f>
+        <f t="shared" si="3"/>
         <v>7.2750000000000004</v>
       </c>
       <c r="H18" s="1">
@@ -3615,7 +4862,7 @@
         <v>8.1735343639946176</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3641,7 +4888,7 @@
         <v>8.6240446147038146</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3668,7 +4915,7 @@
         <v>7.1931092355803496</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3693,7 +4940,7 @@
         <v>6.5990084874920187</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3718,7 +4965,7 @@
         <v>8.8281315481532125</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3743,10 +4990,36 @@
         <v>9.3011647971348204</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M25" t="s">
         <v>7</v>
       </c>
@@ -3757,7 +5030,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
@@ -3766,15 +5054,14 @@
         <v>0.93169424964911285</v>
       </c>
       <c r="O26" s="1">
-        <f>(N26*4)/$N$30</f>
+        <f>N26*4/$N$30</f>
         <v>0.92929312999969071</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
       <c r="M27" s="1">
         <v>2</v>
       </c>
@@ -3783,17 +5070,11 @@
         <v>0.83859894589905137</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" ref="O27:O29" si="6">(N27*4)/$N$30</f>
+        <f t="shared" ref="O27:O29" si="6">N27*4/$N$30</f>
         <v>0.83643774719277919</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0.9636887930220519</v>
-      </c>
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M28" s="1">
         <v>3</v>
       </c>
@@ -3806,13 +5087,11 @@
         <v>1.0982407477254288</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0.92869608979629925</v>
-      </c>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="18"/>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -3825,12 +5104,12 @@
         <v>1.1360283750821016</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0.92360295335317777</v>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.9636887930220519</v>
       </c>
       <c r="M30" t="s">
         <v>50</v>
@@ -3844,180 +5123,206 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.92869608979629925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0.92360295335317777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B33" s="15">
         <v>0.20347539197091971</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B34" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F37" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B38" s="15">
         <v>1</v>
       </c>
-      <c r="C36">
+      <c r="C38" s="15">
         <v>7.5493940346239103</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="15">
         <v>7.5493940346239103</v>
       </c>
-      <c r="E36">
+      <c r="E38" s="15">
         <v>182.34266844559923</v>
       </c>
-      <c r="F36">
+      <c r="F38" s="15">
         <v>2.0273148637327189E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="15">
         <v>14</v>
       </c>
-      <c r="C37">
+      <c r="C39" s="15">
         <v>0.57963129192807195</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="15">
         <v>4.1402235137719422E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B40" s="16">
         <v>15</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C40" s="16">
         <v>8.1290253265519823</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I42" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B43" s="15">
         <v>5.2072325082128943</v>
       </c>
-      <c r="C41">
+      <c r="C43" s="15">
         <v>0.10670339574199521</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="15">
         <v>48.801000867899148</v>
       </c>
-      <c r="E41">
+      <c r="E43" s="15">
         <v>4.8900789993023822E-17</v>
       </c>
-      <c r="F41">
+      <c r="F43" s="15">
         <v>4.9783764854698376</v>
       </c>
-      <c r="G41">
+      <c r="G43" s="15">
         <v>5.436088530955951</v>
       </c>
-      <c r="H41">
+      <c r="H43" s="15">
         <v>4.9783764854698376</v>
       </c>
-      <c r="I41">
+      <c r="I43" s="15">
         <v>5.436088530955951</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B44" s="16">
         <v>0.14901040266315313</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C44" s="16">
         <v>1.1035002483770533E-2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D44" s="16">
         <v>13.503431728475515</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E44" s="16">
         <v>2.0273148637327189E-9</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F44" s="16">
         <v>0.12534267623482218</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G44" s="16">
         <v>0.17267812909148408</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H44" s="16">
         <v>0.12534267623482218</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I44" s="16">
         <v>0.17267812909148408</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +5330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.9775197396866568</v>
       </c>
@@ -4033,7 +5338,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.6048016793023114</v>
       </c>
@@ -4041,7 +5346,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6.2097428115188347</v>
       </c>
@@ -4049,7 +5354,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6.5926840674107972</v>
       </c>
@@ -4057,7 +5362,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.5314171136600798</v>
       </c>
@@ -4065,7 +5370,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5.1033533813497387</v>
       </c>
@@ -4073,7 +5378,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6.8643399956774287</v>
       </c>
@@ -4081,7 +5386,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7.269804249841803</v>
       </c>
@@ -4089,7 +5394,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6.0853144876335028</v>
       </c>
@@ -4097,7 +5402,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5.6019050833971651</v>
       </c>
@@ -4105,7 +5410,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.5189371798360227</v>
       </c>
@@ -4113,7 +5418,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.9469244322728088</v>
       </c>
@@ -4121,7 +5426,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6.6392118616069267</v>
       </c>
@@ -4129,7 +5434,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6.1004567854445924</v>
       </c>
@@ -4137,7 +5442,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8.1735343639946176</v>
       </c>
@@ -4145,7 +5450,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8.6240446147038146</v>
       </c>
@@ -4153,37 +5458,37 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7.1931092355803496</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6.5990084874920187</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8.8281315481532125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9.3011647971348204</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4191,7 +5496,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4207,6 +5512,1220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66454748-5305-4800-BE87-794A0736E1F4}">
+  <dimension ref="A1:O89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.92929312999969105</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D4/H4</f>
+        <v>5.2728249481427127</v>
+      </c>
+      <c r="J4" s="1">
+        <f>($B$42*A4)+$B$41</f>
+        <v>5.3562429108760474</v>
+      </c>
+      <c r="K4" s="1">
+        <f>H4*J4</f>
+        <v>4.9775197396866586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.83643774719277919</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I19" si="0">D5/H5</f>
+        <v>5.0212941896702796</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J23" si="1">($B$42*A5)+$B$41</f>
+        <v>5.5052533135392006</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K23" si="2">H5*J5</f>
+        <v>4.6048016793023114</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6.2</v>
+      </c>
+      <c r="E6" s="1">
+        <f>AVERAGE(D4:D7)</f>
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <f>AVERAGE(E6:E7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="G6" s="1">
+        <f>D6/F6</f>
+        <v>1.1071428571428572</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0982407477254288</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6453924267887956</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6542637162023537</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2097428115188347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6.6</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(D5:D8)</f>
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F16" si="3">AVERAGE(E7:E8)</f>
+        <v>5.85</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G16" si="4">D7/F7</f>
+        <v>1.1282051282051282</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.1360283750821016</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8097140395133291</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8032741188655068</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5926840674107972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5.9</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E17" si="5">AVERAGE(D6:D9)</f>
+        <v>5.9750000000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0625</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.97319587628865989</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.92929312999969071</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3489116722534726</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9522845215286599</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5314171136600798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5.2</v>
+      </c>
+      <c r="E9" s="1">
+        <f>AVERAGE(D7:D10)</f>
+        <v>6.15</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2625000000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83033932135728539</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.83643774719277919</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2168404253060601</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1012949241918131</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1033533813497387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="5"/>
+        <v>6.375</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.078125</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0982407477254288</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.282775442716563</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2503053268549662</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8643399956774287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4250000000000007</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4875000000000007</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1560693641618496</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.1360283750821016</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6019477721742374</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3993157295181193</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.269804249841803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6.1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>6.55</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.65</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91729323308270672</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.92929312999969071</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5641290170756239</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5483261321812725</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0853144876335028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5.7</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>6.75</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.83643774719277919</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8146135431239507</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6973365348444256</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6019050833971651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>7.7</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>6.85</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8875000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.117967332123412</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0982407477254288</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0112131752054401</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8463469375075787</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5189371798360227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>7.9</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="5"/>
+        <v>6.9250000000000007</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9750000000000005</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1326164874551972</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.1360283750821016</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9540516533568635</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9953573401707319</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9469244322728088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6.4</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.90459363957597172</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.92929312999969071</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8869550343088521</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>7.144367742833885</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6392118616069267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="5"/>
+        <v>7.125</v>
+      </c>
+      <c r="F17" s="1">
+        <f>AVERAGE(E17:E18)</f>
+        <v>7.2</v>
+      </c>
+      <c r="G17" s="1">
+        <f>D17/F17</f>
+        <v>0.8472222222222221</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.83643774719277919</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.292832037378262</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2933781454970381</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1004567854445924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>8.1</v>
+      </c>
+      <c r="E18" s="1">
+        <f>AVERAGE(D16:D19)</f>
+        <v>7.2750000000000004</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.0982407477254288</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3754320414498782</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4423885481601912</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1735343639946176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.1360283750821016</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4822074751308021</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5913989508233444</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6240446147038146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1">
+        <v>0.92929312999969071</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7404093534864975</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1931092355803496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1">
+        <v>0.83643774719277919</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8894197561496506</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5990084874920187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1">
+        <v>1.0982407477254288</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0384301588128046</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8281315481532125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1">
+        <v>1.1360283750821016</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>8.187440561475956</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3011647971348204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <f>AVERAGE(G8,G12,G16)</f>
+        <v>0.93169424964911285</v>
+      </c>
+      <c r="O26" s="1">
+        <f>(N26*4)/$N$30</f>
+        <v>0.92929312999969071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <f>AVERAGE(G9,G13,G17)</f>
+        <v>0.83859894589905137</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O29" si="6">(N27*4)/$N$30</f>
+        <v>0.83643774719277919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.9636887930220519</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <f>AVERAGE(G6,G10,G14)</f>
+        <v>1.1010783964220898</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0982407477254288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.92869608979629925</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <f>AVERAGE(G7,G11,G15)</f>
+        <v>1.1389636599407249</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1360283750821016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.92360295335317777</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <f>SUM(N26:N29)</f>
+        <v>4.0103352519109787</v>
+      </c>
+      <c r="O30">
+        <f>SUM(O26:O29)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.20347539197091971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7.5493940346239103</v>
+      </c>
+      <c r="D36">
+        <v>7.5493940346239103</v>
+      </c>
+      <c r="E36">
+        <v>182.34266844559923</v>
+      </c>
+      <c r="F36">
+        <v>2.0273148637327189E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0.57963129192807195</v>
+      </c>
+      <c r="D37">
+        <v>4.1402235137719422E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>15</v>
+      </c>
+      <c r="C38" s="5">
+        <v>8.1290253265519823</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9">
+        <v>5.2072325082128943</v>
+      </c>
+      <c r="C41">
+        <v>0.10670339574199521</v>
+      </c>
+      <c r="D41">
+        <v>48.801000867899148</v>
+      </c>
+      <c r="E41">
+        <v>4.8900789993023822E-17</v>
+      </c>
+      <c r="F41">
+        <v>4.9783764854698376</v>
+      </c>
+      <c r="G41">
+        <v>5.436088530955951</v>
+      </c>
+      <c r="H41">
+        <v>4.9783764854698376</v>
+      </c>
+      <c r="I41">
+        <v>5.436088530955951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.14901040266315313</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1.1035002483770533E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>13.503431728475515</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2.0273148637327189E-9</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.12534267623482218</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.17267812909148408</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.12534267623482218</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.17267812909148408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4.9775197396866568</v>
+      </c>
+      <c r="B49">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.6048016793023114</v>
+      </c>
+      <c r="B50">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6.2097428115188347</v>
+      </c>
+      <c r="B51">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6.5926840674107972</v>
+      </c>
+      <c r="B52">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5.5314171136600798</v>
+      </c>
+      <c r="B53">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5.1033533813497387</v>
+      </c>
+      <c r="B54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6.8643399956774287</v>
+      </c>
+      <c r="B55">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7.269804249841803</v>
+      </c>
+      <c r="B56">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6.0853144876335028</v>
+      </c>
+      <c r="B57">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5.6019050833971651</v>
+      </c>
+      <c r="B58">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7.5189371798360227</v>
+      </c>
+      <c r="B59">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7.9469244322728088</v>
+      </c>
+      <c r="B60">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>6.6392118616069267</v>
+      </c>
+      <c r="B61">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6.1004567854445924</v>
+      </c>
+      <c r="B62">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8.1735343639946176</v>
+      </c>
+      <c r="B63">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8.6240446147038146</v>
+      </c>
+      <c r="B64">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7.1931092355803496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6.5990084874920187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8.8281315481532125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9.3011647971348204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="85" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776D33D1-6D14-47CB-BD9E-B1E11AD0B41E}">
   <dimension ref="A1:O58"/>
   <sheetViews>
@@ -4214,9 +6733,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>23</v>
       </c>
@@ -4230,7 +6749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4292,7 +6811,7 @@
         <v>339.3965753257545</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4319,7 +6838,7 @@
         <v>368.11828915353527</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4358,7 +6877,7 @@
         <v>436.00931584181154</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4397,7 +6916,7 @@
         <v>343.92781151173813</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4438,7 +6957,7 @@
         <v>402.67948684232073</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4477,7 +6996,7 @@
         <v>433.69954578138476</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4516,7 +7035,7 @@
         <v>510.37349590767263</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4555,7 +7074,7 @@
         <v>400.18801697358509</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4596,7 +7115,7 @@
         <v>465.9623983588869</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4635,7 +7154,7 @@
         <v>499.28080240923424</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4666,7 +7185,7 @@
         <v>584.73767597353378</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4693,7 +7212,7 @@
         <v>456.44822243543206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4720,7 +7239,7 @@
         <v>527.83800746522218</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -4745,7 +7264,7 @@
         <v>563.36004905740538</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4770,7 +7289,7 @@
         <v>657.34925547159719</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -4795,7 +7314,7 @@
         <v>511.34509827892998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M20" s="12" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +7325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4822,7 +7341,7 @@
         <v>0.97550216564122083</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M22" s="14">
         <v>2</v>
       </c>
@@ -4835,7 +7354,7 @@
         <v>1.0109310133303924</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +7371,7 @@
         <v>1.1463192347177487</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4871,7 +7390,7 @@
         <v>0.86724758631063836</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4890,7 +7409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4898,7 +7417,7 @@
         <v>0.92163721252808961</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4906,7 +7425,7 @@
         <v>16.985284584320013</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -4914,12 +7433,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>37</v>
@@ -4937,7 +7456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4957,7 +7476,7 @@
         <v>4.6558018596189374E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4971,7 +7490,7 @@
         <v>288.4998924103391</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -4985,8 +7504,8 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>42</v>
@@ -5013,7 +7532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5042,7 +7561,7 @@
         <v>354.99416350862282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +7590,7 @@
         <v>19.382840365763581</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -5079,7 +7598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>339.3965753257545</v>
       </c>
@@ -5087,7 +7606,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>368.11828915353527</v>
       </c>
@@ -5095,7 +7614,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>436.00931584181154</v>
       </c>
@@ -5103,7 +7622,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>343.92781151173813</v>
       </c>
@@ -5111,7 +7630,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>402.67948684232073</v>
       </c>
@@ -5119,7 +7638,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>433.69954578138476</v>
       </c>
@@ -5127,7 +7646,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>510.37349590767263</v>
       </c>
@@ -5135,7 +7654,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>400.18801697358509</v>
       </c>
@@ -5143,7 +7662,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>465.9623983588869</v>
       </c>
@@ -5151,7 +7670,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>499.28080240923424</v>
       </c>
@@ -5159,7 +7678,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>584.73767597353378</v>
       </c>
@@ -5167,7 +7686,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>456.44822243543206</v>
       </c>
@@ -5175,22 +7694,22 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>527.83800746522218</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>563.36004905740538</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>657.34925547159719</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>511.34509827892998</v>
       </c>
@@ -5201,22 +7720,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57970AF-8A3F-4286-89D2-0F84460AE7A4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5230,7 +7749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5265,7 +7784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5283,7 +7802,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5298,7 +7817,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5316,7 +7835,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5334,7 +7853,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5355,7 +7874,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5373,7 +7892,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5391,7 +7910,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5409,7 +7928,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5430,7 +7949,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5448,7 +7967,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5466,7 +7985,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5484,7 +8003,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5505,7 +8024,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5523,7 +8042,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5539,7 +8058,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5554,7 +8073,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5573,7 +8092,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5590,7 +8109,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5607,7 +8126,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5624,7 +8143,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M24" s="12" t="s">
         <v>7</v>
       </c>
@@ -5635,35 +8154,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M26" s="1">
         <v>2</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M27" s="1">
         <v>3</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M28" s="1">
         <v>4</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M29" s="12" t="s">
         <v>50</v>
       </c>
@@ -5675,7 +8194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E73F7-EDEF-452C-9D76-339819B5B724}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -5683,9 +8202,9 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>23</v>
       </c>
@@ -5699,7 +8218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5732,7 +8251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5750,7 +8269,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5766,7 +8285,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5785,7 +8304,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5804,7 +8323,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5825,7 +8344,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5844,7 +8363,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5863,7 +8382,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5882,7 +8401,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5903,7 +8422,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5922,7 +8441,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5939,7 +8458,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5955,7 +8474,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -5974,7 +8493,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -5991,7 +8510,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -6008,7 +8527,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -6025,7 +8544,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M19" s="12" t="s">
         <v>7</v>
       </c>
@@ -6036,35 +8555,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M20" s="14">
         <v>1</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M21" s="14">
         <v>2</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M22" s="14">
         <v>3</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M23" s="14">
         <v>4</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M24" s="12" t="s">
         <v>49</v>
       </c>
